--- a/experiment result/128_0.5_40_zs30_kappa_lp.xlsx
+++ b/experiment result/128_0.5_40_zs30_kappa_lp.xlsx
@@ -443,7 +443,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.02371089666446512</v>
+        <v>0.002958830730101059</v>
       </c>
     </row>
     <row r="3">
@@ -451,7 +451,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.03192995580946791</v>
+        <v>0.007013396030195367</v>
       </c>
     </row>
     <row r="4">
@@ -459,7 +459,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.03449220586332622</v>
+        <v>0.005492395002223915</v>
       </c>
     </row>
     <row r="5">
@@ -467,7 +467,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.03960800537769311</v>
+        <v>0.009729928344609793</v>
       </c>
     </row>
     <row r="6">
@@ -475,7 +475,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.02256422928959653</v>
+        <v>0.001388336123118711</v>
       </c>
     </row>
     <row r="7">
@@ -483,7 +483,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.04563643864215675</v>
+        <v>0.007704278992009263</v>
       </c>
     </row>
     <row r="8">
@@ -491,7 +491,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.03106048103325251</v>
+        <v>0.006255593789286955</v>
       </c>
     </row>
     <row r="9">
@@ -499,7 +499,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.03491958833720275</v>
+        <v>0.005768202347497735</v>
       </c>
     </row>
     <row r="10">
@@ -507,7 +507,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0409417126241574</v>
+        <v>0.006148907193472134</v>
       </c>
     </row>
     <row r="11">
@@ -515,7 +515,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.04096751737952515</v>
+        <v>0.04630938287478135</v>
       </c>
     </row>
     <row r="12">
@@ -523,7 +523,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0.02662239028390248</v>
+        <v>0.003653578771555784</v>
       </c>
     </row>
     <row r="13">
@@ -531,7 +531,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0.04697924102836008</v>
+        <v>0.01442394667223575</v>
       </c>
     </row>
     <row r="14">
@@ -539,7 +539,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0.04291895384241166</v>
+        <v>0.004593717328255763</v>
       </c>
     </row>
     <row r="15">
@@ -547,7 +547,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0429042270727437</v>
+        <v>0.006414216623277675</v>
       </c>
     </row>
     <row r="16">
@@ -555,7 +555,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0.03478037513743933</v>
+        <v>0.005041428238671682</v>
       </c>
     </row>
     <row r="17">
@@ -563,7 +563,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0.05759680035825863</v>
+        <v>0.008420023646027756</v>
       </c>
     </row>
     <row r="18">
@@ -571,7 +571,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0.04584943304617575</v>
+        <v>0.005167445029271798</v>
       </c>
     </row>
     <row r="19">
@@ -579,7 +579,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0.01401702897019456</v>
+        <v>0.0007883779913246761</v>
       </c>
     </row>
     <row r="20">
@@ -587,7 +587,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0436254953423064</v>
+        <v>0.00871947832593822</v>
       </c>
     </row>
     <row r="21">
@@ -595,7 +595,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0.04413785938544462</v>
+        <v>0.004574437692006538</v>
       </c>
     </row>
     <row r="22">
@@ -603,7 +603,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>0.02442200323599882</v>
+        <v>0.002446287492788363</v>
       </c>
     </row>
     <row r="23">
@@ -611,7 +611,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>0.03873404456159263</v>
+        <v>0.003677447047279468</v>
       </c>
     </row>
     <row r="24">
@@ -619,7 +619,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0362544986094213</v>
+        <v>0.006185712195796032</v>
       </c>
     </row>
     <row r="25">
@@ -627,7 +627,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>0.01426716281866665</v>
+        <v>0.001494198680697972</v>
       </c>
     </row>
     <row r="26">
@@ -635,7 +635,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>0.01318372526360492</v>
+        <v>0.0006810907707813253</v>
       </c>
     </row>
     <row r="27">
@@ -643,7 +643,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>0.03517945523805866</v>
+        <v>0.01017789969259129</v>
       </c>
     </row>
     <row r="28">
@@ -651,7 +651,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>0.03724437236235554</v>
+        <v>0.003680493771007722</v>
       </c>
     </row>
     <row r="29">
@@ -659,7 +659,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>0.03435869181013869</v>
+        <v>0.005301401263223799</v>
       </c>
     </row>
     <row r="30">
@@ -667,7 +667,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>0.03302776502464214</v>
+        <v>0.007086124065129243</v>
       </c>
     </row>
     <row r="31">
@@ -675,7 +675,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>0.03675052052820392</v>
+        <v>0.006728209409452929</v>
       </c>
     </row>
     <row r="32">
@@ -683,7 +683,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>0.01657547748520018</v>
+        <v>0.0008297234742279802</v>
       </c>
     </row>
     <row r="33">
@@ -691,7 +691,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>0.02471009772529204</v>
+        <v>0.002729627508091886</v>
       </c>
     </row>
     <row r="34">
@@ -699,7 +699,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>0.06421543822269679</v>
+        <v>0.009214067966940565</v>
       </c>
     </row>
     <row r="35">
@@ -707,7 +707,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>0.03432481252117639</v>
+        <v>0.00571401803292315</v>
       </c>
     </row>
     <row r="36">
@@ -715,7 +715,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>0.03759608333423638</v>
+        <v>0.004344095315521565</v>
       </c>
     </row>
     <row r="37">
@@ -723,7 +723,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>0.04360418012740484</v>
+        <v>0.01868302742817889</v>
       </c>
     </row>
     <row r="38">
@@ -731,7 +731,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>0.03689000200120664</v>
+        <v>0.005111025303344263</v>
       </c>
     </row>
     <row r="39">
@@ -739,7 +739,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>0.04113959748599387</v>
+        <v>0.005019837400222991</v>
       </c>
     </row>
     <row r="40">
@@ -747,7 +747,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>0.04283813895221265</v>
+        <v>0.00483919993002222</v>
       </c>
     </row>
     <row r="41">
@@ -755,7 +755,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>0.04021629935736379</v>
+        <v>0.01100666279635521</v>
       </c>
     </row>
     <row r="42">
@@ -763,7 +763,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>0.05337058885410587</v>
+        <v>0.03005017303726558</v>
       </c>
     </row>
     <row r="43">
@@ -771,7 +771,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>0.03033206617650372</v>
+        <v>0.004974149184971934</v>
       </c>
     </row>
     <row r="44">
@@ -779,7 +779,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>0.04564956452204228</v>
+        <v>0.008953867856713609</v>
       </c>
     </row>
     <row r="45">
@@ -787,7 +787,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>0.02830625935740598</v>
+        <v>0.00335612311263169</v>
       </c>
     </row>
     <row r="46">
@@ -795,7 +795,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>0.06685413482255347</v>
+        <v>0.05864096539039667</v>
       </c>
     </row>
     <row r="47">
@@ -803,7 +803,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>0.04707541050572404</v>
+        <v>0.007235066161264828</v>
       </c>
     </row>
     <row r="48">
@@ -811,7 +811,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>0.04067390819149362</v>
+        <v>0.02838426480079118</v>
       </c>
     </row>
     <row r="49">
@@ -819,7 +819,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>0.02249025154394403</v>
+        <v>0.002810181938676443</v>
       </c>
     </row>
     <row r="50">
@@ -827,7 +827,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>0.03941940506417376</v>
+        <v>0.002083517683418208</v>
       </c>
     </row>
     <row r="51">
@@ -835,7 +835,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>0.02032270458445141</v>
+        <v>0.0005903507490571472</v>
       </c>
     </row>
     <row r="52">
@@ -843,7 +843,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>0.02874723841651952</v>
+        <v>0.005382144550551149</v>
       </c>
     </row>
     <row r="53">
@@ -851,7 +851,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>0.05073676723679525</v>
+        <v>0.00865873652120051</v>
       </c>
     </row>
     <row r="54">
@@ -859,7 +859,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>0.01112963993192212</v>
+        <v>0.000702251971770517</v>
       </c>
     </row>
     <row r="55">
@@ -867,7 +867,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>0.01608795571424472</v>
+        <v>0.001219583149089319</v>
       </c>
     </row>
     <row r="56">
@@ -875,7 +875,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>0.03144912537444736</v>
+        <v>0.003703944360491442</v>
       </c>
     </row>
     <row r="57">
@@ -883,7 +883,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>0.03975466009752367</v>
+        <v>0.003589687905000006</v>
       </c>
     </row>
     <row r="58">
@@ -891,7 +891,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>0.03372646175697796</v>
+        <v>0.003503016797458816</v>
       </c>
     </row>
     <row r="59">
@@ -899,7 +899,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>0.05246192319300171</v>
+        <v>0.00794231637245278</v>
       </c>
     </row>
     <row r="60">
@@ -907,7 +907,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>0.02127732090881975</v>
+        <v>0.003253713345125254</v>
       </c>
     </row>
     <row r="61">
@@ -915,7 +915,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>0.03390899002261417</v>
+        <v>0.005406553411696723</v>
       </c>
     </row>
     <row r="62">
@@ -923,7 +923,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>0.007876354340958406</v>
+        <v>0.000300008927976674</v>
       </c>
     </row>
     <row r="63">
@@ -931,7 +931,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>0.02284432651456091</v>
+        <v>0.002587345191418376</v>
       </c>
     </row>
     <row r="64">
@@ -939,7 +939,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>0.02613451364267043</v>
+        <v>0.002648233784319934</v>
       </c>
     </row>
     <row r="65">
@@ -947,7 +947,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>0.02374076378075561</v>
+        <v>0.002140909093368159</v>
       </c>
     </row>
     <row r="66">
@@ -955,7 +955,7 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>0.04072029889740901</v>
+        <v>0.003097049548999621</v>
       </c>
     </row>
     <row r="67">
@@ -963,7 +963,7 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>0.04420366373753394</v>
+        <v>0.009500836101746211</v>
       </c>
     </row>
     <row r="68">
@@ -971,7 +971,7 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>0.05149188239203008</v>
+        <v>0.009872635263430943</v>
       </c>
     </row>
     <row r="69">
@@ -979,7 +979,7 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>0.0190927969819322</v>
+        <v>0.001617206745189939</v>
       </c>
     </row>
     <row r="70">
@@ -987,7 +987,7 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>0.01551841850924707</v>
+        <v>0.002162607576597449</v>
       </c>
     </row>
     <row r="71">
@@ -995,7 +995,7 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>0.02089998077414513</v>
+        <v>0.002728621267074733</v>
       </c>
     </row>
     <row r="72">
@@ -1003,7 +1003,7 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>0.02726235532683953</v>
+        <v>0.006964950533498704</v>
       </c>
     </row>
     <row r="73">
@@ -1011,7 +1011,7 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>0.01853297672331998</v>
+        <v>0.001791077817234546</v>
       </c>
     </row>
     <row r="74">
@@ -1019,7 +1019,7 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>0.0449140021232101</v>
+        <v>0.004578508633364354</v>
       </c>
     </row>
     <row r="75">
@@ -1027,7 +1027,7 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>0.03214483821614602</v>
+        <v>0.004006332511053127</v>
       </c>
     </row>
     <row r="76">
@@ -1035,7 +1035,7 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>0.04224454402427653</v>
+        <v>0.004850038638677172</v>
       </c>
     </row>
     <row r="77">
@@ -1043,7 +1043,7 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>0.03107080044193774</v>
+        <v>0.003328524270899032</v>
       </c>
     </row>
     <row r="78">
@@ -1051,7 +1051,7 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>0.02005067768922982</v>
+        <v>0.001156822188301835</v>
       </c>
     </row>
     <row r="79">
@@ -1059,7 +1059,7 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>0.02395604119574882</v>
+        <v>0.002191095882895559</v>
       </c>
     </row>
     <row r="80">
@@ -1067,7 +1067,7 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>0.04628155605941683</v>
+        <v>0.007095187003601051</v>
       </c>
     </row>
     <row r="81">
@@ -1075,7 +1075,7 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>0.02438433836315003</v>
+        <v>0.005299612034873002</v>
       </c>
     </row>
   </sheetData>
